--- a/biology/Zoologie/Barite_chauve/Barite_chauve.xlsx
+++ b/biology/Zoologie/Barite_chauve/Barite_chauve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pityriasis gymnocephala
 Le Barite chauve (Pityriasis gymnocephala) est aussi appelé Pie-grièche de Bornéo. C'est la seule espèce du genre Pityriasis et de la famille Pityriasidae.
@@ -512,7 +524,9 @@
           <t>Habitats et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans les forêts de Bornéo, surtout dans les forêts tourbières, depuis le niveau de la mer jusqu'à 1 200 m.
 </t>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Pie-grièche de Bornéo mesure 22–26 cm et pèse 115–150 g[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Pie-grièche de Bornéo mesure 22–26 cm et pèse 115–150 g.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces oiseaux sont principalement insectivores.
-Ils volent en bandes bruyantes à la recherche de sauterelles, de blattes et de scarabées entre autres[2].
+Ils volent en bandes bruyantes à la recherche de sauterelles, de blattes et de scarabées entre autres.
 </t>
         </is>
       </c>
@@ -606,10 +624,12 @@
           <t>Position systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Initialement placé parmi les Prionopidae (famille invalidée, car polyphylétique), certains auteurs l'ont rapproché des Laniidae (famille des pies-grièches), d'autres, des Sturnidae. Une famille distincte, les Pityriaseidae a été créée pour lui-seul, mais les résultats des tests d'hybridation de l'ADN  ont montré que Pityriasis était un artamini (Ahlquist, Sheldon &amp; Sibley 1984). Depuis, le Barite chauve a été replacé dans sa propre famille par la classification de référence (version 2.2, 2009) du Congrès ornithologique international.
-L'orthographe du nom de la famille a été rectifié de Pityriaseidae en Pityriasidae par la classification de référence du Congrès ornithologique international  (verion 8.2, 2018)[3].
+L'orthographe du nom de la famille a été rectifié de Pityriaseidae en Pityriasidae par la classification de référence du Congrès ornithologique international  (verion 8.2, 2018).
 </t>
         </is>
       </c>
